--- a/raw_data/20200818_saline/20200818_Sensor0_Test_23.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_23.xlsx
@@ -1,1898 +1,2314 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440CC19-B0C6-4BBF-AEF0-E4AD68C83760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>19802.863806</v>
+        <v>19802.863806000001</v>
       </c>
       <c r="B2" s="1">
-        <v>5.500796</v>
+        <v>5.5007960000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>898.612000</v>
+        <v>898.61199999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.481000</v>
+        <v>-194.48099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>19813.272352</v>
       </c>
       <c r="G2" s="1">
-        <v>5.503687</v>
+        <v>5.5036870000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>915.084000</v>
+        <v>915.08399999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.529000</v>
+        <v>-164.529</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>19823.688870</v>
+        <v>19823.688870000002</v>
       </c>
       <c r="L2" s="1">
-        <v>5.506580</v>
+        <v>5.5065799999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>937.377000</v>
+        <v>937.37699999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.021000</v>
+        <v>-118.021</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>19834.186694</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.509496</v>
+        <v>5.5094960000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>943.769000</v>
+        <v>943.76900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.889000</v>
+        <v>-102.889</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>19844.513868</v>
+        <v>19844.513867999998</v>
       </c>
       <c r="V2" s="1">
         <v>5.512365</v>
       </c>
       <c r="W2" s="1">
-        <v>950.152000</v>
+        <v>950.15200000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.331300</v>
+        <v>-89.331299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>19854.647929</v>
+        <v>19854.647928999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.515180</v>
+        <v>5.51518</v>
       </c>
       <c r="AB2" s="1">
-        <v>957.177000</v>
+        <v>957.17700000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.186900</v>
+        <v>-80.186899999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>19864.863725</v>
+        <v>19864.863724999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.518018</v>
+        <v>5.5180179999999996</v>
       </c>
       <c r="AG2" s="1">
-        <v>962.213000</v>
+        <v>962.21299999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.992500</v>
+        <v>-79.992500000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>19874.614576</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.520726</v>
+        <v>5.5207259999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.229000</v>
+        <v>970.22900000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.068900</v>
+        <v>-88.068899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>19884.852498</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.523570</v>
+        <v>5.5235700000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.625000</v>
+        <v>979.625</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.287000</v>
+        <v>-103.28700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>19895.813587</v>
+        <v>19895.813587000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.526615</v>
+        <v>5.5266149999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.205000</v>
+        <v>991.20500000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>19907.023716</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.529729</v>
+        <v>5.5297289999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.070000</v>
+        <v>-144.07</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>19917.965942</v>
+        <v>19917.965941999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.532768</v>
+        <v>5.5327679999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.686000</v>
+        <v>-229.68600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>19929.045543</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.535846</v>
+        <v>5.5358460000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1126.950000</v>
+        <v>1126.95</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.825000</v>
+        <v>-366.82499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>19939.780969</v>
+        <v>19939.780968999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.538828</v>
+        <v>5.5388279999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.360000</v>
+        <v>1259.3599999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.969000</v>
+        <v>-578.96900000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>19950.550123</v>
+        <v>19950.550123000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.541819</v>
+        <v>5.5418190000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.330000</v>
+        <v>1408.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-806.054000</v>
+        <v>-806.05399999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>19961.542924</v>
+        <v>19961.542924000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.544873</v>
+        <v>5.5448729999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.490000</v>
+        <v>1571.49</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1042.550000</v>
+        <v>-1042.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>19973.003485</v>
+        <v>19973.003485000001</v>
       </c>
       <c r="CD2" s="1">
         <v>5.548057</v>
       </c>
       <c r="CE2" s="1">
-        <v>1985.140000</v>
+        <v>1985.14</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1594.240000</v>
+        <v>-1594.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>19803.241261</v>
+        <v>19803.241260999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.500900</v>
+        <v>5.5008999999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>898.728000</v>
+        <v>898.72799999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.287000</v>
+        <v>-194.28700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>19813.929057</v>
+        <v>19813.929057000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.503869</v>
+        <v>5.5038689999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.424000</v>
+        <v>915.42399999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.942000</v>
+        <v>-164.94200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>19824.110435</v>
+        <v>19824.110434999999</v>
       </c>
       <c r="L3" s="1">
         <v>5.506697</v>
       </c>
       <c r="M3" s="1">
-        <v>937.291000</v>
+        <v>937.29100000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.038000</v>
+        <v>-118.038</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>19834.602804</v>
+        <v>19834.602803999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.509612</v>
+        <v>5.5096119999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>943.744000</v>
+        <v>943.74400000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.842000</v>
+        <v>-102.842</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>19844.859078</v>
+        <v>19844.859078000001</v>
       </c>
       <c r="V3" s="1">
-        <v>5.512461</v>
+        <v>5.5124610000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>950.174000</v>
+        <v>950.17399999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.440800</v>
+        <v>-89.440799999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>19855.005737</v>
+        <v>19855.005736999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.515279</v>
+        <v>5.5152789999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>957.228000</v>
+        <v>957.22799999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.176600</v>
+        <v>-80.176599999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>19865.203980</v>
+        <v>19865.203979999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.518112</v>
+        <v>5.5181120000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>962.207000</v>
+        <v>962.20699999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.014800</v>
+        <v>-80.014799999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>19875.024766</v>
+        <v>19875.024765999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.520840</v>
+        <v>5.5208399999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.232000</v>
+        <v>970.23199999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.072200</v>
+        <v>-88.072199999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>19885.261899</v>
+        <v>19885.261899000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.523684</v>
+        <v>5.5236840000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.596000</v>
+        <v>979.596</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>19896.264946</v>
+        <v>19896.264945999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.526740</v>
+        <v>5.5267400000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.197000</v>
+        <v>991.197</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.171000</v>
+        <v>-125.17100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>19907.399141</v>
+        <v>19907.399141000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>5.529833</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.071000</v>
+        <v>-144.071</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>19918.330997</v>
+        <v>19918.330997000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.532870</v>
+        <v>5.53287</v>
       </c>
       <c r="BF3" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.688000</v>
+        <v>-229.68799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>19929.443373</v>
+        <v>19929.443372999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.535956</v>
+        <v>5.5359559999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.836000</v>
+        <v>-366.83600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>19940.220905</v>
+        <v>19940.220904999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.538950</v>
+        <v>5.5389499999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.350000</v>
+        <v>1259.3499999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.933000</v>
+        <v>-578.93299999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>19951.004922</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.541946</v>
+        <v>5.5419460000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.390000</v>
+        <v>1408.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-806.131000</v>
+        <v>-806.13099999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>19962.008669</v>
+        <v>19962.008668999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.545002</v>
+        <v>5.5450020000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.500000</v>
+        <v>1571.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1042.480000</v>
+        <v>-1042.48</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>19973.548129</v>
+        <v>19973.548128999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.548208</v>
+        <v>5.5482079999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.330000</v>
+        <v>1984.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1594.560000</v>
+        <v>-1594.56</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>19803.896974</v>
+        <v>19803.896973999999</v>
       </c>
       <c r="B4" s="1">
-        <v>5.501082</v>
+        <v>5.5010820000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>898.750000</v>
+        <v>898.75</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.458000</v>
+        <v>-194.458</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>19814.304526</v>
       </c>
       <c r="G4" s="1">
-        <v>5.503973</v>
+        <v>5.5039730000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>915.692000</v>
+        <v>915.69200000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.996000</v>
+        <v>-164.99600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>19824.456641</v>
+        <v>19824.456641000001</v>
       </c>
       <c r="L4" s="1">
-        <v>5.506794</v>
+        <v>5.5067940000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>937.453000</v>
+        <v>937.45299999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.004000</v>
+        <v>-118.004</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>19834.950531</v>
+        <v>19834.950530999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.509708</v>
+        <v>5.5097079999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>943.807000</v>
+        <v>943.80700000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.827000</v>
+        <v>-102.827</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>19845.202806</v>
+        <v>19845.202806000001</v>
       </c>
       <c r="V4" s="1">
         <v>5.512556</v>
       </c>
       <c r="W4" s="1">
-        <v>950.187000</v>
+        <v>950.18700000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.416500</v>
+        <v>-89.416499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>19855.348178</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.515374</v>
+        <v>5.5153740000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>957.194000</v>
+        <v>957.19399999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.205600</v>
+        <v>-80.205600000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>19865.622640</v>
+        <v>19865.622640000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.518229</v>
+        <v>5.5182289999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.258000</v>
+        <v>962.25800000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.960400</v>
+        <v>-79.960400000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>19875.347203</v>
+        <v>19875.347203000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.520930</v>
+        <v>5.5209299999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.248000</v>
+        <v>970.24800000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.069700</v>
+        <v>-88.069699999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>19885.614850</v>
+        <v>19885.614850000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.523782</v>
+        <v>5.5237819999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.598000</v>
+        <v>979.59799999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.263000</v>
+        <v>-103.26300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>19896.625042</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.526840</v>
+        <v>5.52684</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.198000</v>
+        <v>991.19799999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>19907.756286</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.529932</v>
+        <v>5.5299319999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.055000</v>
+        <v>-144.05500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>19918.691557</v>
+        <v>19918.691556999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.532970</v>
+        <v>5.5329699999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1046.810000</v>
+        <v>1046.81</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.701000</v>
+        <v>-229.70099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>19930.194309</v>
+        <v>19930.194308999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.536165</v>
+        <v>5.5361649999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1126.930000</v>
+        <v>1126.93</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.827000</v>
+        <v>-366.827</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>19940.633607</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.539065</v>
+        <v>5.5390649999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.973000</v>
+        <v>-578.97299999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>19951.426522</v>
+        <v>19951.426522000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.542063</v>
+        <v>5.5420629999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.290000</v>
+        <v>1408.29</v>
       </c>
       <c r="BV4" s="1">
-        <v>-806.202000</v>
+        <v>-806.202</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>19962.457052</v>
+        <v>19962.457052000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.545127</v>
+        <v>5.5451269999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1042.530000</v>
+        <v>-1042.53</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>19974.382860</v>
+        <v>19974.382860000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.548440</v>
+        <v>5.5484400000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1594.780000</v>
+        <v>-1594.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>19804.266501</v>
+        <v>19804.266500999998</v>
       </c>
       <c r="B5" s="1">
-        <v>5.501185</v>
+        <v>5.5011850000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>898.859000</v>
+        <v>898.85900000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.372000</v>
+        <v>-194.37200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>19814.649773</v>
+        <v>19814.649773000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.504069</v>
+        <v>5.5040690000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>915.520000</v>
+        <v>915.52</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.353000</v>
+        <v>-164.35300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>19824.800663</v>
+        <v>19824.800663000002</v>
       </c>
       <c r="L5" s="1">
-        <v>5.506889</v>
+        <v>5.5068890000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>937.264000</v>
+        <v>937.26400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.982000</v>
+        <v>-117.982</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>19835.300707</v>
+        <v>19835.300706999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.509806</v>
+        <v>5.5098060000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>943.816000</v>
+        <v>943.81600000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.859000</v>
+        <v>-102.85899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>19845.623413</v>
+        <v>19845.623413000001</v>
       </c>
       <c r="V5" s="1">
-        <v>5.512673</v>
+        <v>5.5126730000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>950.172000</v>
+        <v>950.17200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.378100</v>
+        <v>-89.378100000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>19855.819177</v>
+        <v>19855.819177000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.515505</v>
+        <v>5.5155050000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>957.231000</v>
+        <v>957.23099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.187000</v>
+        <v>-80.186999999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>19865.894447</v>
+        <v>19865.894446999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.518304</v>
+        <v>5.5183039999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.407000</v>
+        <v>962.40700000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.036400</v>
+        <v>-80.0364</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>19875.694365</v>
+        <v>19875.694364999999</v>
       </c>
       <c r="AK5" s="1">
         <v>5.521026</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.242000</v>
+        <v>970.24199999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.057000</v>
+        <v>-88.057000000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>19885.976464</v>
+        <v>19885.976463999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.523882</v>
+        <v>5.5238820000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.605000</v>
+        <v>979.60500000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.285000</v>
+        <v>-103.285</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>19896.993106</v>
+        <v>19896.993106000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.526943</v>
+        <v>5.5269430000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.197000</v>
+        <v>991.197</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.143000</v>
+        <v>-125.143</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>19908.478435</v>
+        <v>19908.478435000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.530133</v>
+        <v>5.5301330000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.087000</v>
+        <v>-144.08699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>19919.413237</v>
+        <v>19919.413237000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.533170</v>
+        <v>5.5331700000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.671000</v>
+        <v>-229.67099999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>19930.569252</v>
+        <v>19930.569252000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.536269</v>
+        <v>5.5362689999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.838000</v>
+        <v>-366.83800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>19941.033847</v>
+        <v>19941.033846999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.539176</v>
+        <v>5.5391760000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.011000</v>
+        <v>-579.01099999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>19951.841208</v>
+        <v>19951.841208000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.542178</v>
+        <v>5.5421779999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.250000</v>
+        <v>1408.25</v>
       </c>
       <c r="BV5" s="1">
-        <v>-806.169000</v>
+        <v>-806.16899999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>19963.188262</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.545330</v>
+        <v>5.5453299999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.570000</v>
+        <v>1571.57</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1042.400000</v>
+        <v>-1042.4000000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>19974.611526</v>
+        <v>19974.611526000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.548503</v>
+        <v>5.5485030000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.310000</v>
+        <v>1986.31</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1594.800000</v>
+        <v>-1594.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>19804.612205</v>
+        <v>19804.612205000001</v>
       </c>
       <c r="B6" s="1">
-        <v>5.501281</v>
+        <v>5.5012809999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>898.741000</v>
+        <v>898.74099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.360000</v>
+        <v>-194.36</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>19814.997472</v>
+        <v>19814.997471999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.504166</v>
+        <v>5.5041659999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>915.487000</v>
+        <v>915.48699999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.681000</v>
+        <v>-164.68100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>19825.217256</v>
       </c>
       <c r="L6" s="1">
-        <v>5.507005</v>
+        <v>5.5070050000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>937.335000</v>
+        <v>937.33500000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.046000</v>
+        <v>-118.04600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>19835.710866</v>
+        <v>19835.710866000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.509920</v>
+        <v>5.5099200000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>943.816000</v>
+        <v>943.81600000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.872000</v>
+        <v>-102.872</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>19845.896213</v>
       </c>
       <c r="V6" s="1">
-        <v>5.512749</v>
+        <v>5.5127490000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>950.108000</v>
+        <v>950.10799999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.404900</v>
+        <v>-89.404899999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>19856.048042</v>
+        <v>19856.048041999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.515569</v>
+        <v>5.5155690000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>957.335000</v>
+        <v>957.33500000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.159700</v>
+        <v>-80.159700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>19866.237643</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.518399</v>
+        <v>5.5183989999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.243000</v>
+        <v>962.24300000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.904100</v>
+        <v>-79.9041</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>19876.044541</v>
+        <v>19876.044540999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.521123</v>
+        <v>5.5211230000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.255000</v>
+        <v>970.255</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.034000</v>
+        <v>-88.034000000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>19886.335536</v>
+        <v>19886.335535999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.523982</v>
+        <v>5.5239820000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.599000</v>
+        <v>979.59900000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.292000</v>
+        <v>-103.292</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>19897.719712</v>
+        <v>19897.719711999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.527144</v>
+        <v>5.5271439999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.203000</v>
+        <v>991.20299999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.181000</v>
+        <v>-125.181</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>19908.867330</v>
+        <v>19908.867330000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.530241</v>
+        <v>5.5302410000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.066000</v>
+        <v>-144.066</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>19919.800643</v>
+        <v>19919.800642999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.533278</v>
+        <v>5.5332780000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.703000</v>
+        <v>-229.703</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>19930.944261</v>
+        <v>19930.944261000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.536373</v>
+        <v>5.5363730000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1126.950000</v>
+        <v>1126.95</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.848000</v>
+        <v>-366.84800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>19941.764982</v>
+        <v>19941.764982000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.539379</v>
+        <v>5.5393790000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.998000</v>
+        <v>-578.99800000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>19952.554425</v>
+        <v>19952.554424999998</v>
       </c>
       <c r="BT6" s="1">
         <v>5.542376</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.150000</v>
+        <v>1408.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-806.211000</v>
+        <v>-806.21100000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>19963.319594</v>
+        <v>19963.319594000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.545367</v>
+        <v>5.5453669999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1042.550000</v>
+        <v>-1042.55</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>19975.126363</v>
+        <v>19975.126362999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.548646</v>
+        <v>5.5486459999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.070000</v>
+        <v>1985.07</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1594.330000</v>
+        <v>-1594.33</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>19804.954443</v>
+        <v>19804.954442999999</v>
       </c>
       <c r="B7" s="1">
-        <v>5.501376</v>
+        <v>5.5013759999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>898.699000</v>
+        <v>898.69899999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.446000</v>
+        <v>-194.446</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>19815.406669</v>
       </c>
       <c r="G7" s="1">
-        <v>5.504280</v>
+        <v>5.5042799999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>915.871000</v>
+        <v>915.87099999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.713000</v>
+        <v>-164.71299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>19825.490833</v>
       </c>
       <c r="L7" s="1">
-        <v>5.507081</v>
+        <v>5.5070810000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>937.360000</v>
+        <v>937.36</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.908000</v>
+        <v>-117.908</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>19835.997059</v>
+        <v>19835.997059000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.509999</v>
+        <v>5.5099989999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>943.820000</v>
+        <v>943.82</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.864000</v>
+        <v>-102.864</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>19846.237956</v>
+        <v>19846.237956000001</v>
       </c>
       <c r="V7" s="1">
-        <v>5.512844</v>
+        <v>5.5128440000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>950.129000</v>
+        <v>950.12900000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.388800</v>
+        <v>-89.388800000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>19856.407432</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.515669</v>
+        <v>5.5156689999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>957.227000</v>
+        <v>957.22699999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.212300</v>
+        <v>-80.212299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>19866.582363</v>
+        <v>19866.582363000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.518495</v>
+        <v>5.5184949999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>962.309000</v>
+        <v>962.30899999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.990000</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>19876.740924</v>
+        <v>19876.740924000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.521317</v>
+        <v>5.5213169999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.267000</v>
+        <v>970.26700000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.079100</v>
+        <v>-88.079099999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>19887.055264</v>
+        <v>19887.055263999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.524182</v>
+        <v>5.5241819999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.616000</v>
+        <v>979.61599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.277000</v>
+        <v>-103.277</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>19898.112576</v>
@@ -1901,73 +2317,73 @@
         <v>5.527253</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.197000</v>
+        <v>991.197</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.161000</v>
+        <v>-125.161</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>19909.223959</v>
+        <v>19909.223958999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.530340</v>
+        <v>5.5303399999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.066000</v>
+        <v>-144.066</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>19920.180546</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.533383</v>
+        <v>5.5333829999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.674000</v>
+        <v>-229.67400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>19931.617336</v>
+        <v>19931.617335999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.536560</v>
+        <v>5.5365599999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1126.960000</v>
+        <v>1126.96</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.853000</v>
+        <v>-366.85300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>19942.273544</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.539520</v>
+        <v>5.5395200000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.033000</v>
+        <v>-579.03300000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>19952.670488</v>
@@ -1976,150 +2392,150 @@
         <v>5.542408</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.100000</v>
+        <v>1408.1</v>
       </c>
       <c r="BV7" s="1">
-        <v>-806.184000</v>
+        <v>-806.18399999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>19963.747145</v>
+        <v>19963.747145000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.545485</v>
+        <v>5.5454850000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.740000</v>
+        <v>1571.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1042.670000</v>
+        <v>-1042.67</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>19975.649642</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.548792</v>
+        <v>5.5487919999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.430000</v>
+        <v>1985.43</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1596.410000</v>
+        <v>-1596.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>19805.391914</v>
       </c>
       <c r="B8" s="1">
-        <v>5.501498</v>
+        <v>5.5014979999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>898.683000</v>
+        <v>898.68299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.537000</v>
+        <v>-194.53700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19815.700765</v>
+        <v>19815.700765000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5.504361</v>
+        <v>5.5043610000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>915.933000</v>
+        <v>915.93299999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.700000</v>
+        <v>-164.7</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>19825.840493</v>
       </c>
       <c r="L8" s="1">
-        <v>5.507178</v>
+        <v>5.5071779999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>937.322000</v>
+        <v>937.322</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.974000</v>
+        <v>-117.974</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>19836.347233</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.510096</v>
+        <v>5.5100959999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>943.809000</v>
+        <v>943.80899999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.881000</v>
+        <v>-102.881</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>19846.581201</v>
+        <v>19846.581201000001</v>
       </c>
       <c r="V8" s="1">
-        <v>5.512939</v>
+        <v>5.5129390000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>950.071000</v>
+        <v>950.07100000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.421600</v>
+        <v>-89.421599999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>19857.105329</v>
+        <v>19857.105329000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.515863</v>
+        <v>5.5158630000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>957.254000</v>
+        <v>957.25400000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.157200</v>
+        <v>-80.157200000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>19867.267336</v>
+        <v>19867.267336000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.518685</v>
+        <v>5.5186849999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.067000</v>
+        <v>962.06700000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.155900</v>
+        <v>-80.155900000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>19877.090107</v>
@@ -2128,2189 +2544,2189 @@
         <v>5.521414</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.251000</v>
+        <v>970.25099999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.062100</v>
+        <v>-88.062100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>19887.442143</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.524289</v>
+        <v>5.5242889999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.631000</v>
+        <v>979.63099999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.279000</v>
+        <v>-103.279</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>19898.475616</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.527354</v>
+        <v>5.5273539999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.192000</v>
+        <v>991.19200000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.163000</v>
+        <v>-125.163</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>19909.889056</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.530525</v>
+        <v>5.5305249999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.079000</v>
+        <v>-144.07900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>19920.853122</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.533570</v>
+        <v>5.5335700000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.679000</v>
+        <v>-229.679</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>19931.726420</v>
+        <v>19931.726419999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.536591</v>
+        <v>5.5365909999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1126.950000</v>
+        <v>1126.95</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.859000</v>
+        <v>-366.85899999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>19942.692965</v>
+        <v>19942.692964999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.539637</v>
+        <v>5.5396369999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.016000</v>
+        <v>-579.01599999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>19953.109976</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.542531</v>
+        <v>5.5425310000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.050000</v>
+        <v>1408.05</v>
       </c>
       <c r="BV8" s="1">
-        <v>-806.186000</v>
+        <v>-806.18600000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>19964.163288</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.545601</v>
+        <v>5.5456009999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.620000</v>
+        <v>1571.62</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1042.440000</v>
+        <v>-1042.44</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>19976.188297</v>
+        <v>19976.188297000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.548941</v>
+        <v>5.5489410000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.990000</v>
+        <v>1985.99</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1594.380000</v>
+        <v>-1594.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>19805.655786</v>
+        <v>19805.655785999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.501571</v>
+        <v>5.5015710000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>898.951000</v>
+        <v>898.95100000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.569000</v>
+        <v>-194.56899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>19816.043997</v>
+        <v>19816.043997000001</v>
       </c>
       <c r="G9" s="1">
-        <v>5.504457</v>
+        <v>5.5044570000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>915.366000</v>
+        <v>915.36599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.320000</v>
+        <v>-164.32</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>19826.185722</v>
+        <v>19826.185721999998</v>
       </c>
       <c r="L9" s="1">
-        <v>5.507274</v>
+        <v>5.5072739999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>937.282000</v>
+        <v>937.28200000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.888000</v>
+        <v>-117.88800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>19836.696417</v>
+        <v>19836.696416999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.510193</v>
+        <v>5.5101930000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>943.815000</v>
+        <v>943.81500000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.866000</v>
+        <v>-102.866</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>19847.269139</v>
       </c>
       <c r="V9" s="1">
-        <v>5.513130</v>
+        <v>5.5131300000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>950.181000</v>
+        <v>950.18100000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.339900</v>
+        <v>-89.3399</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>19857.450053</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.515958</v>
+        <v>5.5159580000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.206000</v>
+        <v>957.20600000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.256400</v>
+        <v>-80.256399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>19867.610072</v>
+        <v>19867.610071999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.518781</v>
+        <v>5.5187809999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.257000</v>
+        <v>962.25699999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.140000</v>
+        <v>-80.14</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>19877.437835</v>
+        <v>19877.437835000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.521511</v>
+        <v>5.5215110000000003</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.263000</v>
+        <v>970.26300000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.068800</v>
+        <v>-88.068799999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>19887.802701</v>
+        <v>19887.802701000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.524390</v>
+        <v>5.5243900000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.615000</v>
+        <v>979.61500000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.261000</v>
+        <v>-103.261</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>19899.144031</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.527540</v>
+        <v>5.5275400000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.208000</v>
+        <v>991.20799999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.150000</v>
+        <v>-125.15</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>19910.333968</v>
+        <v>19910.333967999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.530648</v>
+        <v>5.5306480000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.086000</v>
+        <v>-144.08600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>19921.265297</v>
+        <v>19921.265297000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.533685</v>
+        <v>5.5336850000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.667000</v>
+        <v>-229.667</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>19932.103379</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.536695</v>
+        <v>5.5366949999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.891000</v>
+        <v>-366.89100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>19943.090158</v>
+        <v>19943.090157999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.539747</v>
+        <v>5.5397470000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.360000</v>
+        <v>1259.3599999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.003000</v>
+        <v>-579.00300000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>19953.522616</v>
+        <v>19953.522615999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.542645</v>
+        <v>5.5426450000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.950000</v>
+        <v>1407.95</v>
       </c>
       <c r="BV9" s="1">
-        <v>-806.187000</v>
+        <v>-806.18700000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>19964.616665</v>
+        <v>19964.616665000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.545727</v>
+        <v>5.5457270000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1042.570000</v>
+        <v>-1042.57</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>19976.726456</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.549091</v>
+        <v>5.5490909999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1984.610000</v>
+        <v>1984.61</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1595.210000</v>
+        <v>-1595.21</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>19805.999019</v>
+        <v>19805.999018999999</v>
       </c>
       <c r="B10" s="1">
-        <v>5.501666</v>
+        <v>5.5016660000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>898.906000</v>
+        <v>898.90599999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.426000</v>
+        <v>-194.42599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>19816.389739</v>
+        <v>19816.389738999998</v>
       </c>
       <c r="G10" s="1">
-        <v>5.504553</v>
+        <v>5.5045529999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>915.289000</v>
+        <v>915.28899999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.667000</v>
+        <v>-164.667</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>19826.875165</v>
+        <v>19826.875165000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.507465</v>
+        <v>5.5074649999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>937.499000</v>
+        <v>937.49900000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.052000</v>
+        <v>-118.05200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>19837.393829</v>
+        <v>19837.393829000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.510387</v>
+        <v>5.5103869999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>943.848000</v>
+        <v>943.84799999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.835000</v>
+        <v>-102.83499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>19847.611875</v>
+        <v>19847.611874999999</v>
       </c>
       <c r="V10" s="1">
-        <v>5.513226</v>
+        <v>5.5132260000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>950.199000</v>
+        <v>950.19899999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.391100</v>
+        <v>-89.391099999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>19857.799733</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.516055</v>
+        <v>5.5160549999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>957.305000</v>
+        <v>957.30499999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.240800</v>
+        <v>-80.240799999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>19867.953305</v>
+        <v>19867.953304999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.518876</v>
+        <v>5.5188759999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.214000</v>
+        <v>962.21400000000006</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.116900</v>
+        <v>-80.116900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>19878.096490</v>
+        <v>19878.09649</v>
       </c>
       <c r="AK10" s="1">
         <v>5.521693</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.272000</v>
+        <v>970.27200000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.087100</v>
+        <v>-88.087100000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>19888.486189</v>
+        <v>19888.486188999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.524579</v>
+        <v>5.5245790000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.633000</v>
+        <v>979.63300000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.277000</v>
+        <v>-103.277</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>19899.602030</v>
+        <v>19899.602029999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.527667</v>
+        <v>5.5276670000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.217000</v>
+        <v>991.21699999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.142000</v>
+        <v>-125.142</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>19910.692954</v>
+        <v>19910.692953999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>5.530748</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.086000</v>
+        <v>-144.08600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>19921.657139</v>
+        <v>19921.657138999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.533794</v>
+        <v>5.5337940000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.672000</v>
+        <v>-229.672</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>19932.480340</v>
+        <v>19932.480339999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.536800</v>
+        <v>5.5368000000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1126.960000</v>
+        <v>1126.96</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>19943.513380</v>
+        <v>19943.51338</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.539865</v>
+        <v>5.5398649999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.390000</v>
+        <v>1259.3900000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.969000</v>
+        <v>-578.96900000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>19953.938281</v>
+        <v>19953.938280999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.542761</v>
+        <v>5.5427609999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.930000</v>
+        <v>1407.93</v>
       </c>
       <c r="BV10" s="1">
-        <v>-806.157000</v>
+        <v>-806.15700000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>19965.066999</v>
+        <v>19965.066998999999</v>
       </c>
       <c r="BY10" s="1">
         <v>5.545852</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.660000</v>
+        <v>1571.66</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1042.580000</v>
+        <v>-1042.58</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>19977.267591</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.549241</v>
+        <v>5.5492410000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1596.020000</v>
+        <v>-1596.02</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>19806.678072</v>
+        <v>19806.678071999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.501855</v>
+        <v>5.5018549999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>898.859000</v>
+        <v>898.85900000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.482000</v>
+        <v>-194.482</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>19817.078682</v>
+        <v>19817.078681999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.504744</v>
+        <v>5.5047439999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>915.665000</v>
+        <v>915.66499999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.670000</v>
+        <v>-164.67</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>19827.222831</v>
+        <v>19827.222830999999</v>
       </c>
       <c r="L11" s="1">
-        <v>5.507562</v>
+        <v>5.5075620000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>937.196000</v>
+        <v>937.19600000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.969000</v>
+        <v>-117.96899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>19837.741984</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.510484</v>
+        <v>5.5104839999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>943.834000</v>
+        <v>943.83399999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.861000</v>
+        <v>-102.861</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>19847.957090</v>
+        <v>19847.95709</v>
       </c>
       <c r="V11" s="1">
-        <v>5.513321</v>
+        <v>5.5133210000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>950.085000</v>
+        <v>950.08500000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.340200</v>
+        <v>-89.340199999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>19858.454954</v>
+        <v>19858.454954000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.516237</v>
+        <v>5.5162370000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>957.236000</v>
+        <v>957.23599999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.199400</v>
+        <v>-80.199399999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>19868.599591</v>
+        <v>19868.599590999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.519055</v>
+        <v>5.5190549999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.211000</v>
+        <v>962.21100000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.101700</v>
+        <v>-80.101699999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>19878.485850</v>
+        <v>19878.485850000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.521802</v>
+        <v>5.5218020000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.263000</v>
+        <v>970.26300000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.074000</v>
+        <v>-88.073999999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>19888.905309</v>
+        <v>19888.905309000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.524696</v>
+        <v>5.5246959999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.625000</v>
+        <v>979.625</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.275000</v>
+        <v>-103.27500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>19899.967613</v>
+        <v>19899.967613000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.527769</v>
+        <v>5.5277690000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.205000</v>
+        <v>991.20500000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.160000</v>
+        <v>-125.16</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>19911.050192</v>
+        <v>19911.050191999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.530847</v>
+        <v>5.5308469999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.052000</v>
+        <v>-144.05199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>19922.016737</v>
+        <v>19922.016737000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.533894</v>
+        <v>5.5338940000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.680000</v>
+        <v>-229.68</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>19932.904913</v>
+        <v>19932.904912999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>5.536918</v>
       </c>
       <c r="BK11" s="1">
-        <v>1126.930000</v>
+        <v>1126.93</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.847000</v>
+        <v>-366.84699999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>19943.910676</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.539975</v>
+        <v>5.5399750000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.380000</v>
+        <v>1259.3800000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.036000</v>
+        <v>-579.03599999999994</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>19954.375733</v>
+        <v>19954.375733000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.542882</v>
+        <v>5.5428819999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.920000</v>
+        <v>1407.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-806.171000</v>
+        <v>-806.17100000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>19965.489095</v>
+        <v>19965.489095000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.545969</v>
+        <v>5.5459690000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.550000</v>
+        <v>1571.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1042.480000</v>
+        <v>-1042.48</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>19977.809751</v>
+        <v>19977.809751000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.549392</v>
+        <v>5.5493920000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.700000</v>
+        <v>1984.7</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1594.350000</v>
+        <v>-1594.35</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>19807.021768</v>
+        <v>19807.021767999999</v>
       </c>
       <c r="B12" s="1">
-        <v>5.501950</v>
+        <v>5.5019499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>898.738000</v>
+        <v>898.73800000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.464000</v>
+        <v>-194.464</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>19817.424860</v>
+        <v>19817.424859999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.504840</v>
+        <v>5.5048399999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>915.788000</v>
+        <v>915.78800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.740000</v>
+        <v>-164.74</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>19827.568045</v>
       </c>
       <c r="L12" s="1">
-        <v>5.507658</v>
+        <v>5.5076580000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>937.327000</v>
+        <v>937.327</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.997000</v>
+        <v>-117.997</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>19838.097119</v>
+        <v>19838.097118999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.510583</v>
+        <v>5.5105829999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>943.855000</v>
+        <v>943.85500000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.892000</v>
+        <v>-102.892</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>19848.601393</v>
+        <v>19848.601393000001</v>
       </c>
       <c r="V12" s="1">
-        <v>5.513500</v>
+        <v>5.5134999999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>950.107000</v>
+        <v>950.10699999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.343900</v>
+        <v>-89.343900000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>19858.845764</v>
+        <v>19858.845764000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.516346</v>
+        <v>5.5163460000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>957.284000</v>
+        <v>957.28399999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.127800</v>
+        <v>-80.127799999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>19868.984519</v>
+        <v>19868.984519000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.519162</v>
+        <v>5.5191619999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.120000</v>
+        <v>962.12</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.904300</v>
+        <v>-79.904300000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>19878.833545</v>
+        <v>19878.833545000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.521898</v>
+        <v>5.5218980000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.276000</v>
+        <v>970.27599999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.055900</v>
+        <v>-88.055899999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>19889.265900</v>
+        <v>19889.265899999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.524796</v>
+        <v>5.5247960000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.597000</v>
+        <v>979.59699999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.287000</v>
+        <v>-103.28700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>19900.331683</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.527870</v>
+        <v>5.5278700000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.203000</v>
+        <v>991.20299999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.153000</v>
+        <v>-125.15300000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>19911.476254</v>
+        <v>19911.476254000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.530966</v>
+        <v>5.5309660000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.073000</v>
+        <v>-144.07300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>19922.501825</v>
+        <v>19922.501824999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.534028</v>
+        <v>5.5340280000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.686000</v>
+        <v>-229.68600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>19933.231282</v>
+        <v>19933.231282000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.537009</v>
+        <v>5.5370090000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1126.960000</v>
+        <v>1126.96</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.851000</v>
+        <v>-366.851</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>19944.330260</v>
+        <v>19944.330259999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.540092</v>
+        <v>5.5400919999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.410000</v>
+        <v>1259.4100000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.980000</v>
+        <v>-578.98</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>19954.805271</v>
+        <v>19954.805271000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.543001</v>
+        <v>5.5430010000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.890000</v>
+        <v>1407.89</v>
       </c>
       <c r="BV12" s="1">
-        <v>-806.100000</v>
+        <v>-806.1</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>19965.910738</v>
+        <v>19965.910737999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.546086</v>
+        <v>5.5460859999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.700000</v>
+        <v>1571.7</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1042.630000</v>
+        <v>-1042.6300000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>19978.346887</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.549541</v>
+        <v>5.5495409999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.880000</v>
+        <v>1984.88</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1596.040000</v>
+        <v>-1596.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>19807.366985</v>
+        <v>19807.366985000001</v>
       </c>
       <c r="B13" s="1">
         <v>5.502046</v>
       </c>
       <c r="C13" s="1">
-        <v>899.040000</v>
+        <v>899.04</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.361000</v>
+        <v>-194.36099999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>19817.769082</v>
+        <v>19817.769081999999</v>
       </c>
       <c r="G13" s="1">
-        <v>5.504936</v>
+        <v>5.5049359999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>915.814000</v>
+        <v>915.81399999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.654000</v>
+        <v>-164.654</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>19828.225740</v>
+        <v>19828.225740000002</v>
       </c>
       <c r="L13" s="1">
-        <v>5.507840</v>
+        <v>5.5078399999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>937.368000</v>
+        <v>937.36800000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.714000</v>
+        <v>-117.714</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>19838.757790</v>
+        <v>19838.75779</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.510766</v>
+        <v>5.5107660000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>943.798000</v>
+        <v>943.798</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.870000</v>
+        <v>-102.87</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>19848.986821</v>
+        <v>19848.986820999999</v>
       </c>
       <c r="V13" s="1">
-        <v>5.513607</v>
+        <v>5.5136070000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>950.132000</v>
+        <v>950.13199999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.389000</v>
+        <v>-89.388999999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>19859.194980</v>
+        <v>19859.19498</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.516443</v>
+        <v>5.5164429999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>957.235000</v>
+        <v>957.23500000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.183000</v>
+        <v>-80.183000000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>19869.328711</v>
+        <v>19869.328710999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.519258</v>
+        <v>5.5192579999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.129000</v>
+        <v>962.12900000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.062200</v>
+        <v>-80.062200000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>19879.181273</v>
+        <v>19879.181272999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.521995</v>
+        <v>5.5219950000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.276000</v>
+        <v>970.27599999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.053300</v>
+        <v>-88.053299999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>19889.788187</v>
+        <v>19889.788186999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.524941</v>
+        <v>5.5249410000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.631000</v>
+        <v>979.63099999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.293000</v>
+        <v>-103.29300000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>19900.747324</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.527985</v>
+        <v>5.5279850000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.251000</v>
+        <v>991.25099999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.151000</v>
+        <v>-125.151</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>19911.768894</v>
+        <v>19911.768894000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>5.531047</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.080000</v>
+        <v>-144.08000000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>19922.776146</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.534104</v>
+        <v>5.5341040000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1046.820000</v>
+        <v>1046.82</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.685000</v>
+        <v>-229.685</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>19933.615185</v>
+        <v>19933.615184999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>5.537115</v>
       </c>
       <c r="BK13" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.846000</v>
+        <v>-366.846</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>19944.726562</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.540202</v>
+        <v>5.5402019999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.410000</v>
+        <v>1259.4100000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.004000</v>
+        <v>-579.00400000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>19955.212484</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.543115</v>
+        <v>5.5431150000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.920000</v>
+        <v>1407.92</v>
       </c>
       <c r="BV13" s="1">
-        <v>-806.078000</v>
+        <v>-806.07799999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>19966.336758</v>
+        <v>19966.336758000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.546205</v>
+        <v>5.5462049999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.540000</v>
+        <v>1571.54</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1042.570000</v>
+        <v>-1042.57</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>19978.888021</v>
+        <v>19978.888020999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.549691</v>
+        <v>5.5496910000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.440000</v>
+        <v>1986.44</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1595.090000</v>
+        <v>-1595.09</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>19808.023691</v>
+        <v>19808.023690999999</v>
       </c>
       <c r="B14" s="1">
-        <v>5.502229</v>
+        <v>5.5022289999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>898.921000</v>
+        <v>898.92100000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.402000</v>
+        <v>-194.40199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>19818.430745</v>
+        <v>19818.430745000001</v>
       </c>
       <c r="G14" s="1">
-        <v>5.505120</v>
+        <v>5.5051199999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>915.668000</v>
+        <v>915.66800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.768000</v>
+        <v>-164.768</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>19828.605179</v>
+        <v>19828.605178999998</v>
       </c>
       <c r="L14" s="1">
-        <v>5.507946</v>
+        <v>5.5079459999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>937.278000</v>
+        <v>937.27800000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.064000</v>
+        <v>-118.06399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>19839.138727</v>
+        <v>19839.138727000001</v>
       </c>
       <c r="Q14" s="1">
         <v>5.510872</v>
       </c>
       <c r="R14" s="1">
-        <v>943.835000</v>
+        <v>943.83500000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.845000</v>
+        <v>-102.845</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>19849.331823</v>
       </c>
       <c r="V14" s="1">
-        <v>5.513703</v>
+        <v>5.5137029999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>950.085000</v>
+        <v>950.08500000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.306900</v>
+        <v>-89.306899999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>19859.544162</v>
+        <v>19859.544161999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.516540</v>
+        <v>5.51654</v>
       </c>
       <c r="AB14" s="1">
-        <v>957.200000</v>
+        <v>957.2</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.249700</v>
+        <v>-80.249700000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>19869.673926</v>
+        <v>19869.673925999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.519354</v>
+        <v>5.5193539999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.287000</v>
+        <v>962.28700000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.999100</v>
+        <v>-79.999099999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>19879.603336</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.522112</v>
+        <v>5.5221119999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.265000</v>
+        <v>970.26499999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.064200</v>
+        <v>-88.0642</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>19889.984107</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.524996</v>
+        <v>5.5249959999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.626000</v>
+        <v>979.62599999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.281000</v>
+        <v>-103.28100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>19901.060764</v>
+        <v>19901.060764000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.528072</v>
+        <v>5.5280719999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.210000</v>
+        <v>991.21</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.148000</v>
+        <v>-125.148</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>19912.128493</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.531147</v>
+        <v>5.5311469999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.093000</v>
+        <v>-144.09299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>19923.099504</v>
+        <v>19923.099504000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.534194</v>
+        <v>5.5341940000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1046.810000</v>
+        <v>1046.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.671000</v>
+        <v>-229.67099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>19934.003056</v>
+        <v>19934.003056000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>5.537223</v>
       </c>
       <c r="BK14" s="1">
-        <v>1126.990000</v>
+        <v>1126.99</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.864000</v>
+        <v>-366.86399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>19945.152626</v>
+        <v>19945.152625999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.540320</v>
+        <v>5.5403200000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.380000</v>
+        <v>1259.3800000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.056000</v>
+        <v>-579.05600000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>19955.645492</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.543235</v>
+        <v>5.5432350000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1407.830000</v>
+        <v>1407.83</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.962000</v>
+        <v>-805.96199999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>19966.752901</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.546320</v>
+        <v>5.5463199999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1042.690000</v>
+        <v>-1042.69</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>19979.428197</v>
+        <v>19979.428197000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.549841</v>
+        <v>5.5498409999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.260000</v>
+        <v>1984.26</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1594.770000</v>
+        <v>-1594.77</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>19808.392712</v>
+        <v>19808.392712000001</v>
       </c>
       <c r="B15" s="1">
-        <v>5.502331</v>
+        <v>5.5023309999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>899.073000</v>
+        <v>899.07299999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.381000</v>
+        <v>-194.381</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>19818.802744</v>
+        <v>19818.802744000001</v>
       </c>
       <c r="G15" s="1">
         <v>5.505223</v>
       </c>
       <c r="H15" s="1">
-        <v>916.041000</v>
+        <v>916.04100000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.049000</v>
+        <v>-165.04900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>19828.949421</v>
+        <v>19828.949421000001</v>
       </c>
       <c r="L15" s="1">
-        <v>5.508042</v>
+        <v>5.5080419999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>937.289000</v>
+        <v>937.28899999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.091000</v>
+        <v>-118.09099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>19839.485949</v>
+        <v>19839.485949000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.510968</v>
+        <v>5.5109680000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>943.824000</v>
+        <v>943.82399999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.869000</v>
+        <v>-102.869</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>19849.680192</v>
       </c>
       <c r="V15" s="1">
-        <v>5.513800</v>
+        <v>5.5137999999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>950.131000</v>
+        <v>950.13099999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.318900</v>
+        <v>-89.318899999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>19859.966226</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.516657</v>
+        <v>5.5166570000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>957.217000</v>
+        <v>957.21699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.170700</v>
+        <v>-80.170699999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>19870.086101</v>
+        <v>19870.086101000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.519468</v>
+        <v>5.5194679999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.285000</v>
+        <v>962.28499999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.984400</v>
+        <v>-79.984399999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>19879.892537</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.522192</v>
+        <v>5.5221920000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.266000</v>
+        <v>970.26599999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.040800</v>
+        <v>-88.040800000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>19890.347675</v>
+        <v>19890.347675000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.525097</v>
+        <v>5.5250969999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.638000</v>
+        <v>979.63800000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.280000</v>
+        <v>-103.28</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>19901.426320</v>
+        <v>19901.426319999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.528174</v>
+        <v>5.5281739999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.210000</v>
+        <v>991.21</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.152000</v>
+        <v>-125.152</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>19912.483629</v>
+        <v>19912.483628999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.531245</v>
+        <v>5.5312450000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.000000</v>
+        <v>1001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.063000</v>
+        <v>-144.06299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>19923.829129</v>
+        <v>19923.829129000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.534397</v>
+        <v>5.5343970000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1046.820000</v>
+        <v>1046.82</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.696000</v>
+        <v>-229.696</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>19934.752512</v>
+        <v>19934.752511999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.537431</v>
+        <v>5.5374309999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1126.960000</v>
+        <v>1126.96</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.839000</v>
+        <v>-366.839</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>19945.544961</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.540429</v>
+        <v>5.5404289999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.360000</v>
+        <v>1259.3599999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.998000</v>
+        <v>-578.99800000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>19956.076021</v>
+        <v>19956.076021000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.543354</v>
+        <v>5.5433539999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.760000</v>
+        <v>1407.76</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.968000</v>
+        <v>-805.96799999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>19967.202772</v>
+        <v>19967.202772000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.546445</v>
+        <v>5.5464450000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1042.480000</v>
+        <v>-1042.48</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>19980.270868</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.550075</v>
+        <v>5.5500749999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.300000</v>
+        <v>1986.3</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1594.470000</v>
+        <v>-1594.47</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>19808.739445</v>
+        <v>19808.739444999999</v>
       </c>
       <c r="B16" s="1">
-        <v>5.502428</v>
+        <v>5.5024280000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>898.983000</v>
+        <v>898.98299999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.361000</v>
+        <v>-194.36099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>19819.148984</v>
+        <v>19819.148983999999</v>
       </c>
       <c r="G16" s="1">
-        <v>5.505319</v>
+        <v>5.5053190000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>915.461000</v>
+        <v>915.46100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.313000</v>
+        <v>-164.31299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>19829.294619</v>
       </c>
       <c r="L16" s="1">
-        <v>5.508137</v>
+        <v>5.5081369999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>937.518000</v>
+        <v>937.51800000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.951000</v>
+        <v>-117.95099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>19839.902061</v>
+        <v>19839.902061000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.511084</v>
+        <v>5.5110840000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>943.838000</v>
+        <v>943.83799999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.845000</v>
+        <v>-102.845</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>19850.089919</v>
+        <v>19850.089918999998</v>
       </c>
       <c r="V16" s="1">
-        <v>5.513914</v>
+        <v>5.5139139999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>950.121000</v>
+        <v>950.12099999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.363400</v>
+        <v>-89.363399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>19860.245970</v>
+        <v>19860.24597</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.516735</v>
+        <v>5.5167349999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>957.232000</v>
+        <v>957.23199999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.208800</v>
+        <v>-80.208799999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>19870.380724</v>
+        <v>19870.380723999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.519550</v>
+        <v>5.5195499999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>962.192000</v>
+        <v>962.19200000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.036900</v>
+        <v>-80.036900000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>19880.241689</v>
+        <v>19880.241688999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.522289</v>
+        <v>5.5222889999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.264000</v>
+        <v>970.26400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.050500</v>
+        <v>-88.0505</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>19890.705787</v>
+        <v>19890.705786999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.525196</v>
+        <v>5.5251960000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.624000</v>
+        <v>979.62400000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.272000</v>
+        <v>-103.27200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>19901.788427</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.528275</v>
+        <v>5.5282749999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.210000</v>
+        <v>991.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.163000</v>
+        <v>-125.163</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>19913.201340</v>
+        <v>19913.20134</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.531445</v>
+        <v>5.5314449999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.010000</v>
+        <v>1001.01</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.047000</v>
+        <v>-144.047</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>19924.208061</v>
+        <v>19924.208061000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.534502</v>
+        <v>5.5345019999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.678000</v>
+        <v>-229.678</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>19935.155263</v>
+        <v>19935.155263000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.537543</v>
+        <v>5.5375430000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1126.980000</v>
+        <v>1126.98</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.845000</v>
+        <v>-366.84500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>19945.961602</v>
+        <v>19945.961601999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.540545</v>
+        <v>5.5405449999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.003000</v>
+        <v>-579.00300000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>19956.790258</v>
+        <v>19956.790258000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.543553</v>
+        <v>5.5435530000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.877000</v>
+        <v>-805.87699999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>19967.928948</v>
+        <v>19967.928948000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.546647</v>
+        <v>5.5466470000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.520000</v>
+        <v>1571.52</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1042.610000</v>
+        <v>-1042.6099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>19980.506963</v>
@@ -4319,1283 +4735,1283 @@
         <v>5.550141</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.460000</v>
+        <v>1986.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1594.690000</v>
+        <v>-1594.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>19809.081191</v>
+        <v>19809.081191000001</v>
       </c>
       <c r="B17" s="1">
-        <v>5.502523</v>
+        <v>5.5025230000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>898.795000</v>
+        <v>898.79499999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.469000</v>
+        <v>-194.46899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>19819.492211</v>
+        <v>19819.492211000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5.505415</v>
+        <v>5.5054150000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>915.734000</v>
+        <v>915.73400000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.942000</v>
+        <v>-164.94200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>19829.706794</v>
+        <v>19829.706794000002</v>
       </c>
       <c r="L17" s="1">
-        <v>5.508252</v>
+        <v>5.5082519999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>937.297000</v>
+        <v>937.29700000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.057000</v>
+        <v>-118.057</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>19840.183790</v>
+        <v>19840.183789999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.511162</v>
+        <v>5.5111619999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>943.875000</v>
+        <v>943.875</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.893000</v>
+        <v>-102.893</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>19850.382527</v>
+        <v>19850.382527000002</v>
       </c>
       <c r="V17" s="1">
-        <v>5.513995</v>
+        <v>5.5139950000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>950.078000</v>
+        <v>950.07799999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.369300</v>
+        <v>-89.369299999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>19860.594657</v>
+        <v>19860.594657000001</v>
       </c>
       <c r="AA17" s="1">
         <v>5.516832</v>
       </c>
       <c r="AB17" s="1">
-        <v>957.297000</v>
+        <v>957.29700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.217600</v>
+        <v>-80.217600000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>19870.724453</v>
+        <v>19870.724452999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.519646</v>
+        <v>5.5196459999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.281000</v>
+        <v>962.28099999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.919600</v>
+        <v>-79.919600000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>19880.587399</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.522385</v>
+        <v>5.5223849999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.281000</v>
+        <v>970.28099999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.051400</v>
+        <v>-88.051400000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>19891.435906</v>
+        <v>19891.435905999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.525399</v>
+        <v>5.5253990000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.651000</v>
+        <v>979.65099999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.300000</v>
+        <v>-103.3</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>19902.519498</v>
+        <v>19902.519498000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.528478</v>
+        <v>5.5284779999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.219000</v>
+        <v>991.21900000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>19913.560971</v>
+        <v>19913.560970999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.531545</v>
+        <v>5.5315450000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.000000</v>
+        <v>1001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.092000</v>
+        <v>-144.09200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>19924.566701</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.534602</v>
+        <v>5.5346019999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.677000</v>
+        <v>-229.67699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>19935.533214</v>
+        <v>19935.533213999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.537648</v>
+        <v>5.5376479999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.866000</v>
+        <v>-366.86599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>19946.661990</v>
+        <v>19946.661990000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.540739</v>
+        <v>5.5407390000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.400000</v>
+        <v>1259.4000000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.009000</v>
+        <v>-579.00900000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>19956.915250</v>
+        <v>19956.915249999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.543588</v>
+        <v>5.5435879999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.790000</v>
+        <v>1407.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.817000</v>
+        <v>-805.81700000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>19968.047956</v>
+        <v>19968.047955999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.546680</v>
+        <v>5.5466800000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.730000</v>
+        <v>1571.73</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1042.490000</v>
+        <v>-1042.49</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>19981.024788</v>
+        <v>19981.024787999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.550285</v>
+        <v>5.5502849999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.960000</v>
+        <v>1984.96</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1594.610000</v>
+        <v>-1594.61</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>19809.501269</v>
       </c>
       <c r="B18" s="1">
-        <v>5.502639</v>
+        <v>5.5026390000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>898.902000</v>
+        <v>898.90200000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.426000</v>
+        <v>-194.42599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>19819.915767</v>
+        <v>19819.915766999999</v>
       </c>
       <c r="G18" s="1">
-        <v>5.505532</v>
+        <v>5.5055319999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>915.501000</v>
+        <v>915.50099999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.274000</v>
+        <v>-164.274</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>19830.018777</v>
+        <v>19830.018777000001</v>
       </c>
       <c r="L18" s="1">
-        <v>5.508339</v>
+        <v>5.5083390000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>937.376000</v>
+        <v>937.37599999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.999000</v>
+        <v>-117.999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>19840.531980</v>
+        <v>19840.53198</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.511259</v>
+        <v>5.5112589999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>943.855000</v>
+        <v>943.85500000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.881000</v>
+        <v>-102.881</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>19850.723776</v>
+        <v>19850.723775999999</v>
       </c>
       <c r="V18" s="1">
-        <v>5.514090</v>
+        <v>5.5140900000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>950.058000</v>
+        <v>950.05799999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.345900</v>
+        <v>-89.3459</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>19860.939378</v>
+        <v>19860.939377999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.516928</v>
+        <v>5.5169280000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>957.268000</v>
+        <v>957.26800000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.197100</v>
+        <v>-80.197100000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>19871.068219</v>
+        <v>19871.068219000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.519741</v>
+        <v>5.5197409999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>962.261000</v>
+        <v>962.26099999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.032400</v>
+        <v>-80.032399999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>19881.285766</v>
+        <v>19881.285766000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.522579</v>
+        <v>5.5225790000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.270000</v>
+        <v>970.27</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.070700</v>
+        <v>-88.070700000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>19891.814344</v>
+        <v>19891.814343999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.525504</v>
+        <v>5.5255039999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.639000</v>
+        <v>979.63900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.294000</v>
+        <v>-103.294</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>19902.908361</v>
+        <v>19902.908361000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.528586</v>
+        <v>5.5285859999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.225000</v>
+        <v>991.22500000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.169000</v>
+        <v>-125.169</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>19913.921563</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.531645</v>
+        <v>5.5316450000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.990000</v>
+        <v>1000.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.065000</v>
+        <v>-144.065</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>19925.241928</v>
+        <v>19925.241927999999</v>
       </c>
       <c r="BE18" s="1">
         <v>5.534789</v>
       </c>
       <c r="BF18" s="1">
-        <v>1046.820000</v>
+        <v>1046.82</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.676000</v>
+        <v>-229.67599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>19936.211246</v>
+        <v>19936.211245999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.537836</v>
+        <v>5.5378360000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1126.980000</v>
+        <v>1126.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>19946.800831</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.540778</v>
+        <v>5.5407780000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.440000</v>
+        <v>1259.44</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.019000</v>
+        <v>-579.01900000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>19957.353217</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.543709</v>
+        <v>5.5437089999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.800000</v>
+        <v>1407.8</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.795000</v>
+        <v>-805.79499999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>19968.492867</v>
+        <v>19968.492867000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.546804</v>
+        <v>5.5468039999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.630000</v>
+        <v>1571.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1042.580000</v>
+        <v>-1042.58</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>19981.545622</v>
+        <v>19981.545622000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.550429</v>
+        <v>5.5504290000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1596.350000</v>
+        <v>-1596.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>19809.779524</v>
+        <v>19809.779524000001</v>
       </c>
       <c r="B19" s="1">
-        <v>5.502717</v>
+        <v>5.5027169999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>898.842000</v>
+        <v>898.84199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.585000</v>
+        <v>-194.58500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>19820.189559</v>
+        <v>19820.189558999999</v>
       </c>
       <c r="G19" s="1">
-        <v>5.505608</v>
+        <v>5.5056079999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>915.385000</v>
+        <v>915.38499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.040000</v>
+        <v>-165.04</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>19830.352127</v>
+        <v>19830.352126999998</v>
       </c>
       <c r="L19" s="1">
-        <v>5.508431</v>
+        <v>5.5084309999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>937.387000</v>
+        <v>937.38699999999994</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>19840.881163</v>
+        <v>19840.881162999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.511356</v>
+        <v>5.5113560000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>943.810000</v>
+        <v>943.81</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.874000</v>
+        <v>-102.874</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>19851.070510</v>
+        <v>19851.070510000001</v>
       </c>
       <c r="V19" s="1">
-        <v>5.514186</v>
+        <v>5.5141859999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>950.123000</v>
+        <v>950.12300000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.367400</v>
+        <v>-89.367400000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>19861.640225</v>
+        <v>19861.640224999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.517122</v>
+        <v>5.5171219999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>957.315000</v>
+        <v>957.31500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.236400</v>
+        <v>-80.236400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>19871.758158</v>
+        <v>19871.758158000001</v>
       </c>
       <c r="AF19" s="1">
         <v>5.519933</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.267000</v>
+        <v>962.26700000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.006500</v>
+        <v>-80.006500000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>19881.637926</v>
+        <v>19881.637925999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.522677</v>
+        <v>5.5226769999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.277000</v>
+        <v>970.27700000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.081300</v>
+        <v>-88.081299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>19892.171463</v>
+        <v>19892.171462999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.525603</v>
+        <v>5.5256030000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.648000</v>
+        <v>979.64800000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.263000</v>
+        <v>-103.26300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>19903.274409</v>
+        <v>19903.274409000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.528687</v>
+        <v>5.5286869999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.223000</v>
+        <v>991.22299999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.149000</v>
+        <v>-125.149</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>19914.585674</v>
+        <v>19914.585674000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.531829</v>
+        <v>5.5318290000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.990000</v>
+        <v>1000.99</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.083000</v>
+        <v>-144.083</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>19925.684683</v>
+        <v>19925.684682999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.534912</v>
+        <v>5.5349120000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.670000</v>
+        <v>-229.67</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>19936.320893</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.537867</v>
+        <v>5.5378670000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.839000</v>
+        <v>-366.839</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>19947.209039</v>
+        <v>19947.209039000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.540891</v>
+        <v>5.5408910000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.000000</v>
+        <v>-579</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>19957.782257</v>
+        <v>19957.782256999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.543828</v>
+        <v>5.5438280000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.900000</v>
+        <v>1407.9</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.760000</v>
+        <v>-805.76</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>19968.927362</v>
+        <v>19968.927361999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.546924</v>
+        <v>5.5469239999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.670000</v>
+        <v>1571.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1042.590000</v>
+        <v>-1042.5899999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>19982.081761</v>
+        <v>19982.081761000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.550578</v>
+        <v>5.5505779999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.730000</v>
+        <v>1985.73</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1594.350000</v>
+        <v>-1594.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>19810.121300</v>
+        <v>19810.121299999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.502811</v>
+        <v>5.5028110000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>898.919000</v>
+        <v>898.91899999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.388000</v>
+        <v>-194.38800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>19820.534562</v>
+        <v>19820.534562000001</v>
       </c>
       <c r="G20" s="1">
-        <v>5.505704</v>
+        <v>5.5057039999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>915.447000</v>
+        <v>915.447</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.950000</v>
+        <v>-164.95</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>19830.693833</v>
+        <v>19830.693833000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.508526</v>
+        <v>5.5085259999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>937.265000</v>
+        <v>937.26499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.036000</v>
+        <v>-118.036</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>19841.579034</v>
+        <v>19841.579033999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.511550</v>
+        <v>5.5115499999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>943.820000</v>
+        <v>943.82</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.850000</v>
+        <v>-102.85</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>19851.755485</v>
+        <v>19851.755485000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.514377</v>
+        <v>5.5143769999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>950.164000</v>
+        <v>950.16399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.358600</v>
+        <v>-89.358599999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>19861.988416</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.517219</v>
+        <v>5.5172189999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>957.266000</v>
+        <v>957.26599999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.087400</v>
+        <v>-80.087400000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>19872.098866</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.520027</v>
+        <v>5.5200269999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>962.233000</v>
+        <v>962.23299999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.896000</v>
+        <v>-79.896000000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19881.985125</v>
+        <v>19881.985124999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.522774</v>
+        <v>5.5227740000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.277000</v>
+        <v>970.27700000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.057300</v>
+        <v>-88.057299999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>19892.835607</v>
+        <v>19892.835607000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.525788</v>
+        <v>5.5257880000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.646000</v>
+        <v>979.64599999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.286000</v>
+        <v>-103.286</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>19903.943740</v>
+        <v>19903.943739999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.528873</v>
+        <v>5.5288729999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.241000</v>
+        <v>991.24099999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.159000</v>
+        <v>-125.15900000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>19914.999866</v>
+        <v>19914.999865999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.531944</v>
+        <v>5.5319440000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.000000</v>
+        <v>1001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.068000</v>
+        <v>-144.06800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>19926.046731</v>
+        <v>19926.046730999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.535013</v>
+        <v>5.5350130000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1046.820000</v>
+        <v>1046.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.641000</v>
+        <v>-229.64099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>19936.682972</v>
+        <v>19936.682971999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.537967</v>
+        <v>5.5379670000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.000000</v>
+        <v>1127</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.846000</v>
+        <v>-366.846</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>19947.606405</v>
+        <v>19947.606404999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.541002</v>
+        <v>5.5410019999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.380000</v>
+        <v>1259.3800000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.032000</v>
+        <v>-579.03200000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>19958.208321</v>
+        <v>19958.208320999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.543947</v>
+        <v>5.5439470000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.810000</v>
+        <v>1407.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.683000</v>
+        <v>-805.68299999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>19969.345987</v>
+        <v>19969.345987000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.547041</v>
+        <v>5.5470410000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.700000</v>
+        <v>1571.7</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1042.610000</v>
+        <v>-1042.6099999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>19982.623888</v>
+        <v>19982.623887999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.550729</v>
+        <v>5.5507289999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.310000</v>
+        <v>1984.31</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1595.810000</v>
+        <v>-1595.81</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>19810.461028</v>
+        <v>19810.461028000002</v>
       </c>
       <c r="B21" s="1">
-        <v>5.502906</v>
+        <v>5.5029060000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>898.822000</v>
+        <v>898.822</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.472000</v>
+        <v>-194.47200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>19820.877045</v>
+        <v>19820.877045000001</v>
       </c>
       <c r="G21" s="1">
-        <v>5.505799</v>
+        <v>5.5057989999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>916.067000</v>
+        <v>916.06700000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.901000</v>
+        <v>-164.90100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>19831.384301</v>
+        <v>19831.384300999998</v>
       </c>
       <c r="L21" s="1">
         <v>5.508718</v>
       </c>
       <c r="M21" s="1">
-        <v>937.291000</v>
+        <v>937.29100000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.960000</v>
+        <v>-117.96</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>19841.925739</v>
+        <v>19841.925738999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.511646</v>
+        <v>5.5116459999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>943.833000</v>
+        <v>943.83299999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.856000</v>
+        <v>-102.85599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>19852.101164</v>
       </c>
       <c r="V21" s="1">
-        <v>5.514473</v>
+        <v>5.5144729999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>950.099000</v>
+        <v>950.09900000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.383600</v>
+        <v>-89.383600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>19862.336607</v>
+        <v>19862.336607000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.517316</v>
+        <v>5.5173160000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>957.231000</v>
+        <v>957.23099999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.260800</v>
+        <v>-80.260800000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>19872.457014</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.520127</v>
+        <v>5.5201269999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.164000</v>
+        <v>962.16399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.983700</v>
+        <v>-79.983699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>19882.649268</v>
+        <v>19882.649268000001</v>
       </c>
       <c r="AK21" s="1">
         <v>5.522958</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.270000</v>
+        <v>970.27</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.045000</v>
+        <v>-88.045000000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>19893.252742</v>
+        <v>19893.252742000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.525904</v>
+        <v>5.5259039999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.641000</v>
+        <v>979.64099999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.275000</v>
+        <v>-103.27500000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>19904.398841</v>
+        <v>19904.398840999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.529000</v>
+        <v>5.5289999999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.205000</v>
+        <v>991.20500000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.138000</v>
+        <v>-125.13800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>19915.376822</v>
+        <v>19915.376821999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.532049</v>
+        <v>5.5320489999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.086000</v>
+        <v>-144.08600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>19926.406332</v>
+        <v>19926.406331999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.535113</v>
+        <v>5.5351129999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1046.830000</v>
+        <v>1046.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.666000</v>
+        <v>-229.666</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>19937.055437</v>
+        <v>19937.055436999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.538071</v>
+        <v>5.5380710000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.859000</v>
+        <v>-366.85899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>19948.024991</v>
+        <v>19948.024990999998</v>
       </c>
       <c r="BO21" s="1">
         <v>5.541118</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.420000</v>
+        <v>1259.42</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.968000</v>
+        <v>-578.96799999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>19958.625952</v>
+        <v>19958.625951999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.544063</v>
+        <v>5.5440630000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.658000</v>
+        <v>-805.65800000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>19969.767089</v>
+        <v>19969.767089000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.547158</v>
+        <v>5.5471579999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.630000</v>
+        <v>1571.63</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1042.540000</v>
+        <v>-1042.54</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>19983.161055</v>
@@ -5604,679 +6020,679 @@
         <v>5.550878</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.480000</v>
+        <v>1986.48</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1595.580000</v>
+        <v>-1595.58</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>19811.147986</v>
       </c>
       <c r="B22" s="1">
-        <v>5.503097</v>
+        <v>5.5030970000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>898.952000</v>
+        <v>898.952</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.622000</v>
+        <v>-194.62200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>19821.568438</v>
+        <v>19821.568437999998</v>
       </c>
       <c r="G22" s="1">
-        <v>5.505991</v>
+        <v>5.5059909999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>915.824000</v>
+        <v>915.82399999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.052000</v>
+        <v>-165.05199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>19831.732965</v>
+        <v>19831.732964999999</v>
       </c>
       <c r="L22" s="1">
-        <v>5.508815</v>
+        <v>5.5088150000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>937.415000</v>
+        <v>937.41499999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.048000</v>
+        <v>-118.048</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>19842.273961</v>
+        <v>19842.273960999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.511743</v>
+        <v>5.5117430000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>943.865000</v>
+        <v>943.86500000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.869000</v>
+        <v>-102.869</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>19852.443404</v>
+        <v>19852.443404000001</v>
       </c>
       <c r="V22" s="1">
-        <v>5.514568</v>
+        <v>5.5145679999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>950.130000</v>
+        <v>950.13</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.325600</v>
+        <v>-89.325599999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>19862.997776</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.517499</v>
+        <v>5.5174989999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>957.172000</v>
+        <v>957.17200000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.254800</v>
+        <v>-80.254800000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>19872.893457</v>
+        <v>19872.893456999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.520248</v>
+        <v>5.5202479999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>962.317000</v>
+        <v>962.31700000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.967400</v>
+        <v>-79.967399999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>19883.029699</v>
+        <v>19883.029698999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.523064</v>
+        <v>5.5230639999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.290000</v>
+        <v>970.29</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.067700</v>
+        <v>-88.067700000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>19893.637142</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.526010</v>
+        <v>5.5260100000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.656000</v>
+        <v>979.65599999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.275000</v>
+        <v>-103.27500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>19904.767863</v>
+        <v>19904.767863000001</v>
       </c>
       <c r="AU22" s="1">
         <v>5.529102</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.233000</v>
+        <v>991.23299999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.160000</v>
+        <v>-125.16</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>19915.736392</v>
+        <v>19915.736391999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.532149</v>
+        <v>5.5321490000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.010000</v>
+        <v>1001.01</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.073000</v>
+        <v>-144.07300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>19926.829445</v>
+        <v>19926.829444999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.535230</v>
+        <v>5.5352300000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.680000</v>
+        <v>-229.68</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>19937.473067</v>
+        <v>19937.473066999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.538187</v>
+        <v>5.5381869999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.000000</v>
+        <v>1127</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.886000</v>
+        <v>-366.88600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>19948.425726</v>
+        <v>19948.425726000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.541229</v>
+        <v>5.5412290000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.993000</v>
+        <v>-578.99300000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>19959.052544</v>
+        <v>19959.052543999998</v>
       </c>
       <c r="BT22" s="1">
         <v>5.544181</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.540000</v>
+        <v>-805.54</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>19970.224896</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.547285</v>
+        <v>5.5472849999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.690000</v>
+        <v>1571.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1042.480000</v>
+        <v>-1042.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>19983.701728</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.551028</v>
+        <v>5.5510279999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.460000</v>
+        <v>1984.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1594.360000</v>
+        <v>-1594.36</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>19811.489266</v>
       </c>
       <c r="B23" s="1">
-        <v>5.503191</v>
+        <v>5.5031910000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>898.901000</v>
+        <v>898.90099999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.597000</v>
+        <v>-194.59700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>19821.911670</v>
+        <v>19821.911670000001</v>
       </c>
       <c r="G23" s="1">
         <v>5.506087</v>
       </c>
       <c r="H23" s="1">
-        <v>915.273000</v>
+        <v>915.27300000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.757000</v>
+        <v>-164.75700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>19832.081640</v>
+        <v>19832.08164</v>
       </c>
       <c r="L23" s="1">
-        <v>5.508912</v>
+        <v>5.5089119999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>937.531000</v>
+        <v>937.53099999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.046000</v>
+        <v>-118.04600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>19842.927657</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.511924</v>
+        <v>5.5119239999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>943.862000</v>
+        <v>943.86199999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.915000</v>
+        <v>-102.91500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>19853.098271</v>
+        <v>19853.098270999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.514750</v>
+        <v>5.5147500000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>950.130000</v>
+        <v>950.13</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.406300</v>
+        <v>-89.406300000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>19863.382205</v>
+        <v>19863.382205000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.517606</v>
+        <v>5.5176059999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>957.190000</v>
+        <v>957.19</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.180400</v>
+        <v>-80.180400000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>19873.160344</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.520322</v>
+        <v>5.5203220000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>962.254000</v>
+        <v>962.25400000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.998000</v>
+        <v>-79.998000000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>19883.379875</v>
+        <v>19883.379874999999</v>
       </c>
       <c r="AK23" s="1">
         <v>5.523161</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.330000</v>
+        <v>970.33</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.040300</v>
+        <v>-88.040300000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>19893.998229</v>
+        <v>19893.998229000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.526111</v>
+        <v>5.5261110000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.657000</v>
+        <v>979.65700000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.288000</v>
+        <v>-103.288</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>19905.132918</v>
+        <v>19905.132917999999</v>
       </c>
       <c r="AU23" s="1">
         <v>5.529204</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.250000</v>
+        <v>991.25</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.148000</v>
+        <v>-125.148</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>19916.156505</v>
+        <v>19916.156504999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.532266</v>
+        <v>5.5322659999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.000000</v>
+        <v>1001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.089000</v>
+        <v>-144.089</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>19927.130521</v>
+        <v>19927.130520999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.535314</v>
+        <v>5.5353139999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.655000</v>
+        <v>-229.655</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>19937.807371</v>
+        <v>19937.807370999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.538280</v>
+        <v>5.5382800000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1126.980000</v>
+        <v>1126.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.861000</v>
+        <v>-366.86099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>19948.843389</v>
+        <v>19948.843389000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.541345</v>
+        <v>5.5413449999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.380000</v>
+        <v>1259.3800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.078000</v>
+        <v>-579.07799999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>19959.465718</v>
+        <v>19959.465717999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.544296</v>
+        <v>5.5442960000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV23" s="1">
-        <v>-805.592000</v>
+        <v>-805.59199999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>19970.641536</v>
+        <v>19970.641535999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.547400</v>
+        <v>5.5473999999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.700000</v>
+        <v>1571.7</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1042.590000</v>
+        <v>-1042.5899999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>19984.241869</v>
+        <v>19984.241869000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.551178</v>
+        <v>5.5511780000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.530000</v>
+        <v>1985.53</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.350000</v>
+        <v>-1596.35</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>19811.830979</v>
+        <v>19811.830978999998</v>
       </c>
       <c r="B24" s="1">
-        <v>5.503286</v>
+        <v>5.5032860000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.852000</v>
+        <v>898.85199999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.456000</v>
+        <v>-194.45599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>19822.283205</v>
       </c>
       <c r="G24" s="1">
-        <v>5.506190</v>
+        <v>5.5061900000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>915.483000</v>
+        <v>915.48299999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.825000</v>
+        <v>-164.82499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>19832.740854</v>
       </c>
       <c r="L24" s="1">
-        <v>5.509095</v>
+        <v>5.5090950000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>937.336000</v>
+        <v>937.33600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.946000</v>
+        <v>-117.946</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>19843.321512</v>
+        <v>19843.321511999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.512034</v>
+        <v>5.5120339999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>943.809000</v>
+        <v>943.80899999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.853000</v>
+        <v>-102.85299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>19853.477597</v>
+        <v>19853.477597000001</v>
       </c>
       <c r="V24" s="1">
-        <v>5.514855</v>
+        <v>5.5148549999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>950.076000</v>
+        <v>950.07600000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.390300</v>
+        <v>-89.390299999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>19863.730519</v>
+        <v>19863.730519000001</v>
       </c>
       <c r="AA24" s="1">
         <v>5.517703</v>
       </c>
       <c r="AB24" s="1">
-        <v>957.212000</v>
+        <v>957.21199999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.320600</v>
+        <v>-80.320599999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>19873.502577</v>
+        <v>19873.502576999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.520417</v>
+        <v>5.5204170000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.305000</v>
+        <v>962.30499999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.004300</v>
+        <v>-80.004300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>19883.725620</v>
+        <v>19883.725620000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.523257</v>
+        <v>5.5232570000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.295000</v>
+        <v>970.29499999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.071900</v>
+        <v>-88.071899999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>19894.414372</v>
+        <v>19894.414371999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.526226</v>
+        <v>5.5262260000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.641000</v>
+        <v>979.64099999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>19905.569930</v>
+        <v>19905.569930000001</v>
       </c>
       <c r="AU24" s="1">
         <v>5.529325</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.241000</v>
+        <v>991.24099999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.164000</v>
+        <v>-125.164</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>19916.456584</v>
@@ -6285,619 +6701,620 @@
         <v>5.532349</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.073000</v>
+        <v>-144.07300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>19927.492569</v>
+        <v>19927.492568999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.535415</v>
+        <v>5.5354150000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.682000</v>
+        <v>-229.68199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>19938.211612</v>
+        <v>19938.211611999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>5.538392</v>
       </c>
       <c r="BK24" s="1">
-        <v>1126.970000</v>
+        <v>1126.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.887000</v>
+        <v>-366.887</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>19949.239660</v>
+        <v>19949.239659999999</v>
       </c>
       <c r="BO24" s="1">
         <v>5.541455</v>
       </c>
       <c r="BP24" s="1">
-        <v>1259.410000</v>
+        <v>1259.4100000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.997000</v>
+        <v>-578.99699999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>19959.896206</v>
+        <v>19959.896206000001</v>
       </c>
       <c r="BT24" s="1">
         <v>5.544416</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="BV24" s="1">
-        <v>-805.561000</v>
+        <v>-805.56100000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>19971.087439</v>
+        <v>19971.087438999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.547524</v>
+        <v>5.5475240000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.720000</v>
+        <v>1571.72</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1042.570000</v>
+        <v>-1042.57</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>19984.781517</v>
+        <v>19984.781516999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.551328</v>
+        <v>5.5513279999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.010000</v>
+        <v>1986.01</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1594.680000</v>
+        <v>-1594.68</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>19812.485076</v>
+        <v>19812.485076000001</v>
       </c>
       <c r="B25" s="1">
-        <v>5.503468</v>
+        <v>5.5034679999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>898.730000</v>
+        <v>898.73</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.473000</v>
+        <v>-194.47300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>19822.721172</v>
+        <v>19822.721172000001</v>
       </c>
       <c r="G25" s="1">
-        <v>5.506311</v>
+        <v>5.5063110000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>915.609000</v>
+        <v>915.60900000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.745000</v>
+        <v>-164.745</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>19833.117287</v>
+        <v>19833.117287000001</v>
       </c>
       <c r="L25" s="1">
-        <v>5.509199</v>
+        <v>5.5091989999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>937.413000</v>
+        <v>937.41300000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.088000</v>
+        <v>-118.08799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>19843.667726</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.512130</v>
+        <v>5.51213</v>
       </c>
       <c r="R25" s="1">
-        <v>943.805000</v>
+        <v>943.80499999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.877000</v>
+        <v>-102.877</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>19853.818842</v>
+        <v>19853.818842000001</v>
       </c>
       <c r="V25" s="1">
-        <v>5.514950</v>
+        <v>5.5149499999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>950.138000</v>
+        <v>950.13800000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.386200</v>
+        <v>-89.386200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>19864.081565</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.517800</v>
+        <v>5.5178000000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>957.308000</v>
+        <v>957.30799999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.195300</v>
+        <v>-80.195300000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>19873.924640</v>
+        <v>19873.924640000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.520535</v>
+        <v>5.5205349999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.326000</v>
+        <v>962.32600000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.992200</v>
+        <v>-79.992199999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>19884.143714</v>
+        <v>19884.143714000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.523373</v>
+        <v>5.5233730000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.328000</v>
+        <v>970.32799999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.059100</v>
+        <v>-88.059100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>19894.716932</v>
+        <v>19894.716931999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.526310</v>
+        <v>5.5263099999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.651000</v>
+        <v>979.65099999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.286000</v>
+        <v>-103.286</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>19905.859558</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.529405</v>
+        <v>5.5294049999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.259000</v>
+        <v>991.25900000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.149000</v>
+        <v>-125.149</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>19916.817211</v>
+        <v>19916.817211000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.532449</v>
+        <v>5.5324489999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.990000</v>
+        <v>1000.99</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.084000</v>
+        <v>-144.084</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>19927.852168</v>
+        <v>19927.852168000001</v>
       </c>
       <c r="BE25" s="1">
         <v>5.535514</v>
       </c>
       <c r="BF25" s="1">
-        <v>1046.800000</v>
+        <v>1046.8</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.675000</v>
+        <v>-229.67500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>19938.583114</v>
+        <v>19938.583114000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.538495</v>
+        <v>5.5384950000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1126.960000</v>
+        <v>1126.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.868000</v>
+        <v>-366.86799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>19949.662251</v>
+        <v>19949.662251000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.541573</v>
+        <v>5.5415729999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.410000</v>
+        <v>1259.4100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.005000</v>
+        <v>-579.005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>19960.319821</v>
+        <v>19960.319821000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.544533</v>
+        <v>5.5445330000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-805.513000</v>
+        <v>-805.51300000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>19971.512511</v>
+        <v>19971.512511000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.547642</v>
+        <v>5.5476419999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.760000</v>
+        <v>1571.76</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1042.450000</v>
+        <v>-1042.45</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>19985.319707</v>
+        <v>19985.319706999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.551478</v>
+        <v>5.5514780000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1984.260000</v>
+        <v>1984.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1595.160000</v>
+        <v>-1595.16</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>19812.856246</v>
+        <v>19812.856245999999</v>
       </c>
       <c r="B26" s="1">
         <v>5.503571</v>
       </c>
       <c r="C26" s="1">
-        <v>899.100000</v>
+        <v>899.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.262000</v>
+        <v>-194.262</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>19822.967444</v>
+        <v>19822.967444000002</v>
       </c>
       <c r="G26" s="1">
-        <v>5.506380</v>
+        <v>5.5063800000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>915.703000</v>
+        <v>915.70299999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.786000</v>
+        <v>-164.786</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>19833.462997</v>
+        <v>19833.462996999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.509295</v>
+        <v>5.5092949999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>937.398000</v>
+        <v>937.39800000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.130000</v>
+        <v>-118.13</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>19844.018888</v>
+        <v>19844.018887999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.512227</v>
+        <v>5.5122270000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>943.864000</v>
+        <v>943.86400000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.848000</v>
+        <v>-102.848</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>19854.164026</v>
+        <v>19854.164025999999</v>
       </c>
       <c r="V26" s="1">
-        <v>5.515046</v>
+        <v>5.5150459999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>950.137000</v>
+        <v>950.13699999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.381700</v>
+        <v>-89.381699999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>19864.501148</v>
+        <v>19864.501147999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.517917</v>
+        <v>5.5179169999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>957.245000</v>
+        <v>957.245</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.134900</v>
+        <v>-80.134900000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>19874.202427</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.520612</v>
+        <v>5.5206119999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.097000</v>
+        <v>962.09699999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.964300</v>
+        <v>-79.964299999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>19884.437346</v>
+        <v>19884.437345999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.523455</v>
+        <v>5.5234550000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.305000</v>
+        <v>970.30499999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.074800</v>
+        <v>-88.074799999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>19895.077846</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.526411</v>
+        <v>5.5264110000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.658000</v>
+        <v>979.65800000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.277000</v>
+        <v>-103.277</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>19906.226102</v>
+        <v>19906.226102000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.529507</v>
+        <v>5.5295069999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.222000</v>
+        <v>991.22199999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.146000</v>
+        <v>-125.146</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>19917.172843</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.532548</v>
+        <v>5.5325480000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.000000</v>
+        <v>1001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.074000</v>
+        <v>-144.07400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>19928.571368</v>
+        <v>19928.571368000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.535714</v>
+        <v>5.5357139999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1046.820000</v>
+        <v>1046.82</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.656000</v>
+        <v>-229.65600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>19939.331577</v>
+        <v>19939.331577000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.538703</v>
+        <v>5.5387029999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1126.940000</v>
+        <v>1126.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.854000</v>
+        <v>-366.85399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>19950.048140</v>
+        <v>19950.048139999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.541680</v>
+        <v>5.5416800000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.390000</v>
+        <v>1259.3900000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.999000</v>
+        <v>-578.99900000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>19960.736429</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.544649</v>
+        <v>5.5446489999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-805.528000</v>
+        <v>-805.52800000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>19971.935637</v>
+        <v>19971.935636999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.547760</v>
+        <v>5.5477600000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.730000</v>
+        <v>1571.73</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1042.570000</v>
+        <v>-1042.57</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>19986.173260</v>
+        <v>19986.17326</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.551715</v>
+        <v>5.5517149999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.020000</v>
+        <v>1986.02</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1594.430000</v>
+        <v>-1594.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>